--- a/app/data/covs.xlsx
+++ b/app/data/covs.xlsx
@@ -442,26 +442,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B3">
-        <v>9614</v>
+        <v>1728</v>
       </c>
       <c r="C3">
-        <v>3968</v>
+        <v>870</v>
       </c>
       <c r="D3">
-        <v>5646</v>
+        <v>858</v>
       </c>
       <c r="E3">
-        <v>0.029</v>
+        <v>0.005</v>
       </c>
       <c r="F3">
-        <v>0.031</v>
+        <v>0.005</v>
       </c>
       <c r="G3">
-        <v>0.027</v>
+        <v>0.006</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -477,26 +477,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B4">
-        <v>1728</v>
+        <v>9071</v>
       </c>
       <c r="C4">
-        <v>870</v>
+        <v>5521</v>
       </c>
       <c r="D4">
-        <v>858</v>
+        <v>3550</v>
       </c>
       <c r="E4">
-        <v>0.005</v>
+        <v>0.027</v>
       </c>
       <c r="F4">
-        <v>0.005</v>
+        <v>0.019</v>
       </c>
       <c r="G4">
-        <v>0.006</v>
+        <v>0.037</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -512,26 +512,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B5">
-        <v>9071</v>
+        <v>31734</v>
       </c>
       <c r="C5">
-        <v>5521</v>
+        <v>20755</v>
       </c>
       <c r="D5">
-        <v>3550</v>
+        <v>10979</v>
       </c>
       <c r="E5">
-        <v>0.027</v>
+        <v>0.096</v>
       </c>
       <c r="F5">
-        <v>0.019</v>
+        <v>0.06</v>
       </c>
       <c r="G5">
-        <v>0.037</v>
+        <v>0.139</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -547,26 +547,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B6">
-        <v>31734</v>
+        <v>76990</v>
       </c>
       <c r="C6">
-        <v>20755</v>
+        <v>49201</v>
       </c>
       <c r="D6">
-        <v>10979</v>
+        <v>27789</v>
       </c>
       <c r="E6">
-        <v>0.096</v>
+        <v>0.232</v>
       </c>
       <c r="F6">
-        <v>0.06</v>
+        <v>0.153</v>
       </c>
       <c r="G6">
-        <v>0.139</v>
+        <v>0.329</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -582,26 +582,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group55-64</t>
         </is>
       </c>
       <c r="B7">
-        <v>76990</v>
+        <v>88046</v>
       </c>
       <c r="C7">
-        <v>49201</v>
+        <v>30332</v>
       </c>
       <c r="D7">
-        <v>27789</v>
+        <v>57714</v>
       </c>
       <c r="E7">
-        <v>0.232</v>
+        <v>0.265</v>
       </c>
       <c r="F7">
-        <v>0.153</v>
+        <v>0.317</v>
       </c>
       <c r="G7">
-        <v>0.329</v>
+        <v>0.203</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -617,26 +617,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>age_group55-64</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B8">
-        <v>88046</v>
+        <v>74013</v>
       </c>
       <c r="C8">
-        <v>30332</v>
+        <v>24198</v>
       </c>
       <c r="D8">
-        <v>57714</v>
+        <v>49815</v>
       </c>
       <c r="E8">
-        <v>0.265</v>
+        <v>0.223</v>
       </c>
       <c r="F8">
-        <v>0.317</v>
+        <v>0.273</v>
       </c>
       <c r="G8">
-        <v>0.203</v>
+        <v>0.162</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -652,26 +652,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B9">
-        <v>74013</v>
+        <v>40457</v>
       </c>
       <c r="C9">
-        <v>24198</v>
+        <v>14596</v>
       </c>
       <c r="D9">
-        <v>49815</v>
+        <v>25861</v>
       </c>
       <c r="E9">
-        <v>0.223</v>
+        <v>0.122</v>
       </c>
       <c r="F9">
-        <v>0.273</v>
+        <v>0.142</v>
       </c>
       <c r="G9">
-        <v>0.162</v>
+        <v>0.098</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -687,26 +687,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B10">
-        <v>40457</v>
+        <v>9614</v>
       </c>
       <c r="C10">
-        <v>14596</v>
+        <v>3968</v>
       </c>
       <c r="D10">
-        <v>25861</v>
+        <v>5646</v>
       </c>
       <c r="E10">
-        <v>0.122</v>
+        <v>0.029</v>
       </c>
       <c r="F10">
-        <v>0.142</v>
+        <v>0.031</v>
       </c>
       <c r="G10">
-        <v>0.098</v>
+        <v>0.027</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2297,26 +2297,26 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B56">
-        <v>9937</v>
+        <v>60103</v>
       </c>
       <c r="C56">
-        <v>8835</v>
+        <v>59393</v>
       </c>
       <c r="D56">
-        <v>1102</v>
+        <v>710</v>
       </c>
       <c r="E56">
-        <v>0.029</v>
+        <v>0.178</v>
       </c>
       <c r="F56">
-        <v>0.047</v>
+        <v>0.03</v>
       </c>
       <c r="G56">
-        <v>0.028</v>
+        <v>0.189</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2332,26 +2332,26 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B57">
-        <v>60103</v>
+        <v>69458</v>
       </c>
       <c r="C57">
-        <v>59393</v>
+        <v>67853</v>
       </c>
       <c r="D57">
-        <v>710</v>
+        <v>1605</v>
       </c>
       <c r="E57">
-        <v>0.178</v>
+        <v>0.205</v>
       </c>
       <c r="F57">
-        <v>0.03</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G57">
-        <v>0.189</v>
+        <v>0.216</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2367,26 +2367,26 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B58">
-        <v>69458</v>
+        <v>59870</v>
       </c>
       <c r="C58">
-        <v>67853</v>
+        <v>57068</v>
       </c>
       <c r="D58">
-        <v>1605</v>
+        <v>2802</v>
       </c>
       <c r="E58">
-        <v>0.205</v>
+        <v>0.177</v>
       </c>
       <c r="F58">
-        <v>0.06900000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G58">
-        <v>0.216</v>
+        <v>0.181</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2402,26 +2402,26 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B59">
-        <v>59870</v>
+        <v>55292</v>
       </c>
       <c r="C59">
-        <v>57068</v>
+        <v>50599</v>
       </c>
       <c r="D59">
-        <v>2802</v>
+        <v>4693</v>
       </c>
       <c r="E59">
-        <v>0.177</v>
+        <v>0.164</v>
       </c>
       <c r="F59">
-        <v>0.12</v>
+        <v>0.202</v>
       </c>
       <c r="G59">
-        <v>0.181</v>
+        <v>0.161</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2437,26 +2437,26 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group55-64</t>
         </is>
       </c>
       <c r="B60">
-        <v>55292</v>
+        <v>37232</v>
       </c>
       <c r="C60">
-        <v>50599</v>
+        <v>32697</v>
       </c>
       <c r="D60">
-        <v>4693</v>
+        <v>4535</v>
       </c>
       <c r="E60">
-        <v>0.164</v>
+        <v>0.11</v>
       </c>
       <c r="F60">
-        <v>0.202</v>
+        <v>0.195</v>
       </c>
       <c r="G60">
-        <v>0.161</v>
+        <v>0.104</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2472,26 +2472,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>age_group55-64</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B61">
-        <v>37232</v>
+        <v>24067</v>
       </c>
       <c r="C61">
-        <v>32697</v>
+        <v>19941</v>
       </c>
       <c r="D61">
-        <v>4535</v>
+        <v>4126</v>
       </c>
       <c r="E61">
-        <v>0.11</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F61">
-        <v>0.195</v>
+        <v>0.177</v>
       </c>
       <c r="G61">
-        <v>0.104</v>
+        <v>0.063</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2507,26 +2507,26 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B62">
-        <v>24067</v>
+        <v>22155</v>
       </c>
       <c r="C62">
-        <v>19941</v>
+        <v>18445</v>
       </c>
       <c r="D62">
-        <v>4126</v>
+        <v>3710</v>
       </c>
       <c r="E62">
-        <v>0.07099999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="F62">
-        <v>0.177</v>
+        <v>0.159</v>
       </c>
       <c r="G62">
-        <v>0.063</v>
+        <v>0.059</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2542,26 +2542,26 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B63">
-        <v>22155</v>
+        <v>9937</v>
       </c>
       <c r="C63">
-        <v>18445</v>
+        <v>8835</v>
       </c>
       <c r="D63">
-        <v>3710</v>
+        <v>1102</v>
       </c>
       <c r="E63">
-        <v>0.066</v>
+        <v>0.029</v>
       </c>
       <c r="F63">
-        <v>0.159</v>
+        <v>0.047</v>
       </c>
       <c r="G63">
-        <v>0.059</v>
+        <v>0.028</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -4152,26 +4152,26 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B109">
-        <v>1100</v>
+        <v>108</v>
       </c>
       <c r="C109">
-        <v>822</v>
+        <v>41</v>
       </c>
       <c r="D109">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="E109">
-        <v>0.033</v>
+        <v>0.003</v>
       </c>
       <c r="F109">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="G109">
-        <v>0.043</v>
+        <v>0.002</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4187,26 +4187,26 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B110">
-        <v>108</v>
+        <v>750</v>
       </c>
       <c r="C110">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="D110">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="E110">
-        <v>0.003</v>
+        <v>0.023</v>
       </c>
       <c r="F110">
-        <v>0.005</v>
+        <v>0.033</v>
       </c>
       <c r="G110">
-        <v>0.002</v>
+        <v>0.015</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4222,26 +4222,26 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B111">
-        <v>750</v>
+        <v>2822</v>
       </c>
       <c r="C111">
-        <v>293</v>
+        <v>1338</v>
       </c>
       <c r="D111">
-        <v>457</v>
+        <v>1484</v>
       </c>
       <c r="E111">
-        <v>0.023</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F111">
-        <v>0.033</v>
+        <v>0.108</v>
       </c>
       <c r="G111">
-        <v>0.015</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4257,26 +4257,26 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B112">
-        <v>2822</v>
+        <v>7008</v>
       </c>
       <c r="C112">
-        <v>1338</v>
+        <v>3568</v>
       </c>
       <c r="D112">
-        <v>1484</v>
+        <v>3440</v>
       </c>
       <c r="E112">
-        <v>0.08599999999999999</v>
+        <v>0.213</v>
       </c>
       <c r="F112">
-        <v>0.108</v>
+        <v>0.25</v>
       </c>
       <c r="G112">
-        <v>0.07000000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4292,26 +4292,26 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group55-64</t>
         </is>
       </c>
       <c r="B113">
-        <v>7008</v>
+        <v>8776</v>
       </c>
       <c r="C113">
-        <v>3568</v>
+        <v>4830</v>
       </c>
       <c r="D113">
-        <v>3440</v>
+        <v>3946</v>
       </c>
       <c r="E113">
-        <v>0.213</v>
+        <v>0.267</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>0.287</v>
       </c>
       <c r="G113">
-        <v>0.186</v>
+        <v>0.252</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4327,26 +4327,26 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>age_group55-64</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B114">
-        <v>8776</v>
+        <v>7602</v>
       </c>
       <c r="C114">
-        <v>4830</v>
+        <v>4887</v>
       </c>
       <c r="D114">
-        <v>3946</v>
+        <v>2715</v>
       </c>
       <c r="E114">
-        <v>0.267</v>
+        <v>0.231</v>
       </c>
       <c r="F114">
-        <v>0.287</v>
+        <v>0.197</v>
       </c>
       <c r="G114">
-        <v>0.252</v>
+        <v>0.255</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4362,26 +4362,26 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B115">
-        <v>7602</v>
+        <v>4730</v>
       </c>
       <c r="C115">
-        <v>4887</v>
+        <v>3359</v>
       </c>
       <c r="D115">
-        <v>2715</v>
+        <v>1371</v>
       </c>
       <c r="E115">
-        <v>0.231</v>
+        <v>0.144</v>
       </c>
       <c r="F115">
-        <v>0.197</v>
+        <v>0.1</v>
       </c>
       <c r="G115">
-        <v>0.255</v>
+        <v>0.176</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4397,26 +4397,26 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B116">
-        <v>4730</v>
+        <v>1100</v>
       </c>
       <c r="C116">
-        <v>3359</v>
+        <v>822</v>
       </c>
       <c r="D116">
-        <v>1371</v>
+        <v>278</v>
       </c>
       <c r="E116">
-        <v>0.144</v>
+        <v>0.033</v>
       </c>
       <c r="F116">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G116">
-        <v>0.176</v>
+        <v>0.043</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -6007,26 +6007,26 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B162">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D162">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="E162">
-        <v>0.016</v>
+        <v>0.007</v>
       </c>
       <c r="F162">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="G162">
-        <v>0.003</v>
+        <v>0.013</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -6042,26 +6042,26 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B163">
-        <v>120</v>
+        <v>747</v>
       </c>
       <c r="C163">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="D163">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="E163">
-        <v>0.007</v>
+        <v>0.042</v>
       </c>
       <c r="F163">
-        <v>0.005</v>
+        <v>0.033</v>
       </c>
       <c r="G163">
-        <v>0.013</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -6077,26 +6077,26 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B164">
-        <v>747</v>
+        <v>2164</v>
       </c>
       <c r="C164">
-        <v>290</v>
+        <v>680</v>
       </c>
       <c r="D164">
-        <v>457</v>
+        <v>1484</v>
       </c>
       <c r="E164">
-        <v>0.042</v>
+        <v>0.122</v>
       </c>
       <c r="F164">
-        <v>0.033</v>
+        <v>0.108</v>
       </c>
       <c r="G164">
-        <v>0.07199999999999999</v>
+        <v>0.169</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -6112,26 +6112,26 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B165">
-        <v>2164</v>
+        <v>4625</v>
       </c>
       <c r="C165">
-        <v>680</v>
+        <v>1185</v>
       </c>
       <c r="D165">
-        <v>1484</v>
+        <v>3440</v>
       </c>
       <c r="E165">
-        <v>0.122</v>
+        <v>0.26</v>
       </c>
       <c r="F165">
-        <v>0.108</v>
+        <v>0.25</v>
       </c>
       <c r="G165">
-        <v>0.169</v>
+        <v>0.295</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -6147,26 +6147,26 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group55-64</t>
         </is>
       </c>
       <c r="B166">
-        <v>4625</v>
+        <v>5063</v>
       </c>
       <c r="C166">
-        <v>1185</v>
+        <v>1117</v>
       </c>
       <c r="D166">
-        <v>3440</v>
+        <v>3946</v>
       </c>
       <c r="E166">
-        <v>0.26</v>
+        <v>0.285</v>
       </c>
       <c r="F166">
-        <v>0.25</v>
+        <v>0.287</v>
       </c>
       <c r="G166">
-        <v>0.295</v>
+        <v>0.278</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -6182,26 +6182,26 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>age_group55-64</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B167">
-        <v>5063</v>
+        <v>3296</v>
       </c>
       <c r="C167">
-        <v>1117</v>
+        <v>581</v>
       </c>
       <c r="D167">
-        <v>3946</v>
+        <v>2715</v>
       </c>
       <c r="E167">
-        <v>0.285</v>
+        <v>0.185</v>
       </c>
       <c r="F167">
-        <v>0.287</v>
+        <v>0.197</v>
       </c>
       <c r="G167">
-        <v>0.278</v>
+        <v>0.145</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -6217,26 +6217,26 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B168">
-        <v>3296</v>
+        <v>1473</v>
       </c>
       <c r="C168">
-        <v>581</v>
+        <v>102</v>
       </c>
       <c r="D168">
-        <v>2715</v>
+        <v>1371</v>
       </c>
       <c r="E168">
-        <v>0.185</v>
+        <v>0.083</v>
       </c>
       <c r="F168">
-        <v>0.197</v>
+        <v>0.1</v>
       </c>
       <c r="G168">
-        <v>0.145</v>
+        <v>0.025</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6252,26 +6252,26 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B169">
-        <v>1473</v>
+        <v>290</v>
       </c>
       <c r="C169">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D169">
-        <v>1371</v>
+        <v>278</v>
       </c>
       <c r="E169">
-        <v>0.083</v>
+        <v>0.016</v>
       </c>
       <c r="F169">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G169">
-        <v>0.025</v>
+        <v>0.003</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -7305,24 +7305,6 @@
           <t>hypocalcemia</t>
         </is>
       </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
-        <v>1</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
       <c r="H199" t="inlineStr">
         <is>
           <t>cprd</t>
@@ -7375,24 +7357,6 @@
           <t>hypomagnesemia</t>
         </is>
       </c>
-      <c r="B201">
-        <v>3</v>
-      </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201">
-        <v>2</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
       <c r="H201" t="inlineStr">
         <is>
           <t>cprd</t>
@@ -7862,26 +7826,26 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B215">
-        <v>473</v>
+        <v>121</v>
       </c>
       <c r="C215">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="D215">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="E215">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="F215">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="G215">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -7897,26 +7861,26 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B216">
-        <v>121</v>
+        <v>982</v>
       </c>
       <c r="C216">
-        <v>54</v>
+        <v>525</v>
       </c>
       <c r="D216">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="E216">
-        <v>0.003</v>
+        <v>0.027</v>
       </c>
       <c r="F216">
-        <v>0.005</v>
+        <v>0.033</v>
       </c>
       <c r="G216">
-        <v>0.002</v>
+        <v>0.023</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -7932,26 +7896,26 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B217">
-        <v>982</v>
+        <v>3679</v>
       </c>
       <c r="C217">
-        <v>525</v>
+        <v>2195</v>
       </c>
       <c r="D217">
-        <v>457</v>
+        <v>1484</v>
       </c>
       <c r="E217">
-        <v>0.027</v>
+        <v>0.102</v>
       </c>
       <c r="F217">
-        <v>0.033</v>
+        <v>0.108</v>
       </c>
       <c r="G217">
-        <v>0.023</v>
+        <v>0.098</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
@@ -7967,26 +7931,26 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B218">
-        <v>3679</v>
+        <v>9330</v>
       </c>
       <c r="C218">
-        <v>2195</v>
+        <v>5890</v>
       </c>
       <c r="D218">
-        <v>1484</v>
+        <v>3440</v>
       </c>
       <c r="E218">
-        <v>0.102</v>
+        <v>0.258</v>
       </c>
       <c r="F218">
-        <v>0.108</v>
+        <v>0.25</v>
       </c>
       <c r="G218">
-        <v>0.098</v>
+        <v>0.263</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -8002,26 +7966,26 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group55-64</t>
         </is>
       </c>
       <c r="B219">
-        <v>9330</v>
+        <v>11132</v>
       </c>
       <c r="C219">
-        <v>5890</v>
+        <v>7186</v>
       </c>
       <c r="D219">
-        <v>3440</v>
+        <v>3946</v>
       </c>
       <c r="E219">
-        <v>0.258</v>
+        <v>0.308</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.287</v>
       </c>
       <c r="G219">
-        <v>0.263</v>
+        <v>0.321</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
@@ -8037,26 +8001,26 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>age_group55-64</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B220">
-        <v>11132</v>
+        <v>7408</v>
       </c>
       <c r="C220">
-        <v>7186</v>
+        <v>4693</v>
       </c>
       <c r="D220">
-        <v>3946</v>
+        <v>2715</v>
       </c>
       <c r="E220">
-        <v>0.308</v>
+        <v>0.205</v>
       </c>
       <c r="F220">
-        <v>0.287</v>
+        <v>0.197</v>
       </c>
       <c r="G220">
-        <v>0.321</v>
+        <v>0.209</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -8072,26 +8036,26 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B221">
-        <v>7408</v>
+        <v>3039</v>
       </c>
       <c r="C221">
-        <v>4693</v>
+        <v>1668</v>
       </c>
       <c r="D221">
-        <v>2715</v>
+        <v>1371</v>
       </c>
       <c r="E221">
-        <v>0.205</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F221">
-        <v>0.197</v>
+        <v>0.1</v>
       </c>
       <c r="G221">
-        <v>0.209</v>
+        <v>0.074</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -8107,26 +8071,26 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B222">
-        <v>3039</v>
+        <v>473</v>
       </c>
       <c r="C222">
-        <v>1668</v>
+        <v>195</v>
       </c>
       <c r="D222">
-        <v>1371</v>
+        <v>278</v>
       </c>
       <c r="E222">
-        <v>0.08400000000000001</v>
+        <v>0.013</v>
       </c>
       <c r="F222">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G222">
-        <v>0.074</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -9160,24 +9124,6 @@
           <t>hypocalcemia</t>
         </is>
       </c>
-      <c r="B252">
-        <v>5</v>
-      </c>
-      <c r="C252">
-        <v>4</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-      <c r="G252">
-        <v>0</v>
-      </c>
       <c r="H252" t="inlineStr">
         <is>
           <t>cprd</t>
@@ -9229,24 +9175,6 @@
         <is>
           <t>hypomagnesemia</t>
         </is>
-      </c>
-      <c r="B254">
-        <v>4</v>
-      </c>
-      <c r="C254">
-        <v>2</v>
-      </c>
-      <c r="D254">
-        <v>2</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-      <c r="G254">
-        <v>0</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
